--- a/licensedocs/systemtools.xlsx
+++ b/licensedocs/systemtools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A9E44-870C-5140-B301-54CC7C90F5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD973A41-A5A0-F044-A8DE-E6F08A241952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{81FEF306-32EC-6D48-B494-63B4EB34F1E4}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>test file</t>
   </si>
   <si>
-    <t>kasp</t>
-  </si>
-  <si>
-    <t>sql</t>
+    <t>helpdesk</t>
+  </si>
+  <si>
+    <t>intellij</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
